--- a/DataDesign.xlsx
+++ b/DataDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7210"/>
+    <workbookView windowWidth="15788" windowHeight="5717"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>PageNumber</t>
   </si>
@@ -22,7 +22,10 @@
     <t>Brand</t>
   </si>
   <si>
-    <t>Long</t>
+    <t>Brand Owner</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
   <si>
     <t>n1</t>
@@ -31,6 +34,9 @@
     <t>Brand Id</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
     <t>n2</t>
   </si>
   <si>
@@ -61,21 +67,36 @@
     <t>n10</t>
   </si>
   <si>
-    <t>String</t>
-  </si>
-  <si>
     <t>t1</t>
   </si>
   <si>
+    <t>brand code</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
     <t>t2</t>
   </si>
   <si>
+    <t>brand name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>t3</t>
   </si>
   <si>
+    <t>brandowner code</t>
+  </si>
+  <si>
     <t>t4</t>
   </si>
   <si>
+    <t>brandowner name</t>
+  </si>
+  <si>
     <t>t5</t>
   </si>
   <si>
@@ -88,7 +109,16 @@
     <t>s1</t>
   </si>
   <si>
+    <t>Brand Status</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>s2</t>
+  </si>
+  <si>
+    <t>BrandOnwer Status</t>
   </si>
   <si>
     <t>s3</t>
@@ -119,7 +149,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +160,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -137,14 +175,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,45 +221,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +258,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -219,39 +281,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -260,21 +312,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,187 +327,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,16 +522,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,16 +596,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,134 +641,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,6 +776,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,224 +1100,258 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72972972972973" defaultRowHeight="14.55" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="16.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="12.3603603603604" customWidth="1"/>
+    <col min="3" max="3" width="23.9279279279279" customWidth="1"/>
+    <col min="4" max="4" width="13.8198198198198" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="2"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="2"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="2"/>
+      <c r="B28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
